--- a/External Data/Value of British prizes.xlsx
+++ b/External Data/Value of British prizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/2016-Hamburg-Impact-of-War/External Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733EE80F-70AE-A24E-89F3-82A032A72050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43020A47-F78C-2B40-A42A-AACBEB9C8BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20980" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -3034,7 +3034,7 @@
         <v>78</v>
       </c>
       <c r="J111" s="4">
-        <f t="shared" si="11"/>
+        <f>F111*I111/$I$117</f>
         <v>2176647.2077838969</v>
       </c>
       <c r="K111">
@@ -3351,14 +3351,14 @@
         <v>1.4570000000000001</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="10"/>
+        <f>F117*I117/$I$117</f>
         <v>738900.36841110315</v>
       </c>
       <c r="I117" s="3">
         <v>100</v>
       </c>
       <c r="J117" s="4">
-        <f t="shared" si="11"/>
+        <f>F117*I117/$I$117</f>
         <v>738900.36841110315</v>
       </c>
       <c r="K117">
